--- a/Datos/Anuario2024/030201_MatriculacionVehiculos.xlsx
+++ b/Datos/Anuario2024/030201_MatriculacionVehiculos.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="676" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="676"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2 graf1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="3 graf1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="4 graf1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="5" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="5 graf1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="0" sheetId="22" r:id="rId1"/>
+    <sheet name="1" sheetId="35" r:id="rId2"/>
+    <sheet name="2" sheetId="23" r:id="rId3"/>
+    <sheet name="2 graf1" sheetId="24" r:id="rId4"/>
+    <sheet name="3" sheetId="26" r:id="rId5"/>
+    <sheet name="3 graf1" sheetId="27" r:id="rId6"/>
+    <sheet name="4" sheetId="29" r:id="rId7"/>
+    <sheet name="4 graf1" sheetId="30" r:id="rId8"/>
+    <sheet name="5" sheetId="32" r:id="rId9"/>
+    <sheet name="5 graf1" sheetId="33" r:id="rId10"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
@@ -23,41 +29,89 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R10_1">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
     <definedName name="_R3_13">'[2]2.3'!$A$1:$K$41</definedName>
+    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
     <definedName name="_R3_15">'[2]2.4'!$A$1:$K$136</definedName>
     <definedName name="_R3_16">'[2]2.7'!$A$1:$M$113</definedName>
+    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[2]2.5'!$A$1:$G$25</definedName>
+    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
     <definedName name="_R3_22">'[2]2.6'!$A$1:$G$25</definedName>
+    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
     <definedName name="_R5_11">'[2]4.15'!$A$1:$B$18</definedName>
     <definedName name="_R5_12">'[2]4.17'!$A$1:$I$8</definedName>
@@ -65,186 +119,370 @@
     <definedName name="_R5_14">'[2]4.16'!$A$1:$N$7</definedName>
     <definedName name="_R5_15">'[2]4.20'!$A$1:$M$6</definedName>
     <definedName name="_R5_16">'[2]4.22'!$A$1:$M$13</definedName>
+    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
     <definedName name="_R5_19">'[2]4.34'!$A$1:$G$22</definedName>
     <definedName name="_R5_20">'[2]4.31'!$A$1:$G$22</definedName>
+    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
     <definedName name="_R5_23">'[2]4.36'!$A$1:$J$26</definedName>
     <definedName name="_R5_24">'[2]4.33'!$A$1:$J$26</definedName>
     <definedName name="_R5_25">'[2]4.30'!$A$1:$F$10</definedName>
     <definedName name="_R5_26">'[2]4.37'!$A$1:$U$26</definedName>
-    <definedName name="_R5_9">#REF!</definedName>
-    <definedName name="_R6_2">#REF!</definedName>
-    <definedName name="_R6_9">#REF!</definedName>
-    <definedName name="_R7_2">#REF!</definedName>
-    <definedName name="_R8_3">#REF!</definedName>
-    <definedName name="_R8_4">#REF!</definedName>
-    <definedName name="_R8_5">#REF!</definedName>
-    <definedName name="p">'[3]4.27'!$A$1:$G$22</definedName>
-    <definedName name="u">'[3]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="5">'[1]4.6'!$A$1:$C$6</definedName>
-    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_9">#REF!</definedName>
     <definedName name="_R6_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_8" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R7_2">#REF!</definedName>
     <definedName name="_R8_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R8_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_5">#REF!</definedName>
+    <definedName name="p">'[3]4.27'!$A$1:$G$22</definedName>
+    <definedName name="u">'[3]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Autobuses</t>
+  </si>
+  <si>
+    <t>Tractores</t>
+  </si>
+  <si>
+    <t>Remolques</t>
+  </si>
+  <si>
+    <t>Motocicletas</t>
+  </si>
+  <si>
+    <t>Ciclomotores</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Eléctrico</t>
+  </si>
+  <si>
+    <t>Gas Natural Comprimido</t>
+  </si>
+  <si>
+    <t>Gas Licuado de Petróleo</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Turismos y todoterrenos</t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t>Usados</t>
+  </si>
+  <si>
+    <t>Camiones y furgonetas</t>
+  </si>
+  <si>
+    <t>Otros vehículos</t>
+  </si>
+  <si>
+    <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Dirección General de Tráfico. Ministerio del Interior. </t>
+  </si>
+  <si>
+    <t>Autobuses, tractores y otros</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Importación</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>No UE</t>
+  </si>
+  <si>
+    <t>Fuente: Dirección General de Tráfico. Ministerio del Interior.</t>
+  </si>
+  <si>
+    <t>Motocicletas y ciclomotores</t>
+  </si>
+  <si>
+    <t>Autobuses, tractores 
+y otros</t>
+  </si>
+  <si>
+    <t>Gasoil</t>
+  </si>
+  <si>
+    <t>Marca y Modelo</t>
+  </si>
+  <si>
+    <t>Matriculaciones</t>
+  </si>
+  <si>
+    <t>Dacia Sandero</t>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+  </si>
+  <si>
+    <t>Toyota Yaris</t>
+  </si>
+  <si>
+    <t>Hyundai Tucson</t>
+  </si>
+  <si>
+    <t>Peugeot 2008</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Ford Puma</t>
+  </si>
+  <si>
+    <t>Nissan Qashqai</t>
+  </si>
+  <si>
+    <t>Toyota C-HR</t>
+  </si>
+  <si>
+    <t>Citroën C3</t>
+  </si>
+  <si>
+    <t>Renault Captur</t>
+  </si>
+  <si>
+    <t>Volkswagen T-Roc</t>
+  </si>
+  <si>
+    <t>MATRICULACIÓN DE VEHÍCULOS</t>
+  </si>
+  <si>
+    <t>Kia Sportage</t>
+  </si>
+  <si>
+    <t>Ford Kuga</t>
+  </si>
+  <si>
+    <t>Hyundai Kona</t>
+  </si>
+  <si>
+    <t>Seat Arona</t>
+  </si>
+  <si>
+    <t>1. Evolución del número de vehículos matriculados según tipo. 2019-2023</t>
+  </si>
+  <si>
+    <t>2. Vehículos matriculados según tipo y mes de matriculación. 2023</t>
+  </si>
+  <si>
+    <t>3. Vehículos matriculados según tipo y procedencia. 2023</t>
+  </si>
+  <si>
+    <t>4. Vehículos matriculados según tipo y carburante. 2023</t>
+  </si>
+  <si>
+    <t>5. Turismos y todoterrenos nuevos matriculados según marca y modelo más frecuente. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales</t>
+  </si>
+  <si>
+    <t>Fuente: Dirección General de Tráfico. Ministerio del Interior</t>
+  </si>
+  <si>
+    <t>MG ZS</t>
+  </si>
+  <si>
+    <t>Seat Ibiza</t>
+  </si>
+  <si>
+    <t>Tesla Model Y</t>
+  </si>
+  <si>
+    <t>Volvo XC40</t>
+  </si>
+  <si>
+    <t>Citroën C4</t>
+  </si>
+  <si>
+    <t>Opel Corsa</t>
+  </si>
+  <si>
+    <t>Hyundai I20</t>
+  </si>
+  <si>
+    <t>Dacia Duster</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -286,183 +524,364 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5038725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="390525"/>
+          <a:ext cx="5029200" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5038725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="390525"/>
+          <a:ext cx="5029200" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5038725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="390525"/>
+          <a:ext cx="5029200" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="390525"/>
+          <a:ext cx="4448175" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -621,8 +1040,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12310,7 +12729,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -16105,8 +16524,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -17013,2369 +17432,2077 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>MATRICULACIÓN DE VEHÍCULOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja13"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="6"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="inlineStr">
-        <is>
-          <t>1. Evolución del número de vehículos matriculados según tipo. 2019-2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="n">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
         <v>2019</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>2020</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>2021</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>2022</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="18" t="n">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18">
         <v>20894</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="18">
         <v>16032</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="18">
         <v>15516</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="18">
         <v>15189</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="18">
         <v>17467</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Turismos y todoterrenos</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12">
         <v>15705</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>11788</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="12">
         <v>10624</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>10468</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>12216</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="31" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
         <v>3271</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>2606</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="19">
         <v>3007</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>3095</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="19">
         <v>3381</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
-        <is>
-          <t>Camiones y furgonetas</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12">
         <v>1019</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>689</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="20">
         <v>788</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="20">
         <v>719</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="20">
         <v>998</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="31" t="inlineStr">
-        <is>
-          <t>Ciclomotores</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
         <v>216</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>280</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="19">
         <v>228</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>176</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="19">
         <v>191</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>Remolques</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="n">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
         <v>209</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="12">
         <v>167</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="20">
         <v>281</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="20">
         <v>282</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="20">
         <v>182</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="31" t="inlineStr">
-        <is>
-          <t>Tractores</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
         <v>122</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>141</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="19">
         <v>172</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="19">
         <v>214</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="19">
         <v>206</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Autobuses</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="n">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12">
         <v>68</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="12">
         <v>78</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="20">
         <v>90</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="20">
         <v>9</v>
       </c>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="20">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="31" t="inlineStr">
-        <is>
-          <t>Otros vehículos</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
         <v>92</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>75</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>136</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="19">
         <v>126</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="19">
         <v>124</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="n">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12">
         <v>192</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>208</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="20">
         <v>190</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="20">
         <v>100</v>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="20">
         <v>122</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales.</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Dirección General de Tráfico. Ministerio del Interior. </t>
-        </is>
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="19" t="n"/>
-      <c r="F16" s="19" t="n"/>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="14"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>2. Vehículos matriculados según tipo y mes de matriculación. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Ene.</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Feb.</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Mar.</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Abr.</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>May.</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Jun.</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Jul.</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Ago.</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Sep.</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>Oct.</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Nov.</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>Dic.</t>
-        </is>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
         <v>17467</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="18">
         <v>1252</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="18">
         <v>1327</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="18">
         <v>1469</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="18">
         <v>1185</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="18">
         <v>1629</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="18">
         <v>1623</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="18">
         <v>1610</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="18">
         <v>1115</v>
       </c>
-      <c r="K4" s="18" t="n">
+      <c r="K4" s="18">
         <v>1416</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="18">
         <v>1650</v>
       </c>
-      <c r="M4" s="18" t="n">
+      <c r="M4" s="18">
         <v>1663</v>
       </c>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="18">
         <v>1528</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Turismos y todoterrenos</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12">
         <v>12216</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>868</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="12">
         <v>916</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>993</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>825</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="12">
         <v>1121</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>1115</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="12">
         <v>1069</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="12">
         <v>833</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="12">
         <v>941</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="12">
         <v>1153</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="12">
         <v>1188</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="12">
         <v>1194</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="34" t="inlineStr">
-        <is>
-          <t>Nuevos</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7">
         <v>10579</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>751</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>805</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>826</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="19">
         <v>715</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="19">
         <v>960</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="H6" s="19">
         <v>972</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="19">
         <v>923</v>
       </c>
-      <c r="J6" s="19" t="n">
+      <c r="J6" s="19">
         <v>716</v>
       </c>
-      <c r="K6" s="19" t="n">
+      <c r="K6" s="19">
         <v>812</v>
       </c>
-      <c r="L6" s="19" t="n">
+      <c r="L6" s="19">
         <v>1010</v>
       </c>
-      <c r="M6" s="19" t="n">
+      <c r="M6" s="19">
         <v>1037</v>
       </c>
-      <c r="N6" s="19" t="n">
+      <c r="N6" s="19">
         <v>1052</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="35" t="inlineStr">
-        <is>
-          <t>Usados</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12">
         <v>1637</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>117</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>111</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="20">
         <v>167</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="20">
         <v>110</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="G7" s="20">
         <v>161</v>
       </c>
-      <c r="H7" s="20" t="n">
+      <c r="H7" s="20">
         <v>143</v>
       </c>
-      <c r="I7" s="20" t="n">
+      <c r="I7" s="20">
         <v>146</v>
       </c>
-      <c r="J7" s="20" t="n">
+      <c r="J7" s="20">
         <v>117</v>
       </c>
-      <c r="K7" s="20" t="n">
+      <c r="K7" s="20">
         <v>129</v>
       </c>
-      <c r="L7" s="20" t="n">
+      <c r="L7" s="20">
         <v>143</v>
       </c>
-      <c r="M7" s="20" t="n">
+      <c r="M7" s="20">
         <v>151</v>
       </c>
-      <c r="N7" s="20" t="n">
+      <c r="N7" s="20">
         <v>142</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="31" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
         <v>3381</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>234</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>271</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>278</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="19">
         <v>227</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="19">
         <v>327</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="19">
         <v>331</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="19">
         <v>345</v>
       </c>
-      <c r="J8" s="19" t="n">
+      <c r="J8" s="19">
         <v>187</v>
       </c>
-      <c r="K8" s="19" t="n">
+      <c r="K8" s="19">
         <v>311</v>
       </c>
-      <c r="L8" s="19" t="n">
+      <c r="L8" s="19">
         <v>332</v>
       </c>
-      <c r="M8" s="19" t="n">
+      <c r="M8" s="19">
         <v>308</v>
       </c>
-      <c r="N8" s="19" t="n">
+      <c r="N8" s="19">
         <v>230</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>Camiones y furgonetas</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="n">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12">
         <v>998</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="12">
         <v>59</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>68</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="20">
         <v>92</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="20">
         <v>84</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="20">
         <v>83</v>
       </c>
-      <c r="H9" s="20" t="n">
+      <c r="H9" s="20">
         <v>93</v>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="20">
         <v>108</v>
       </c>
-      <c r="J9" s="20" t="n">
+      <c r="J9" s="20">
         <v>54</v>
       </c>
-      <c r="K9" s="20" t="n">
+      <c r="K9" s="20">
         <v>89</v>
       </c>
-      <c r="L9" s="20" t="n">
+      <c r="L9" s="20">
         <v>88</v>
       </c>
-      <c r="M9" s="20" t="n">
+      <c r="M9" s="20">
         <v>110</v>
       </c>
-      <c r="N9" s="20" t="n">
+      <c r="N9" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="31" t="inlineStr">
-        <is>
-          <t>Ciclomotores</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
         <v>191</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="19">
         <v>15</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="19">
         <v>10</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="19">
         <v>20</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="19">
         <v>26</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="19">
         <v>24</v>
       </c>
-      <c r="J10" s="19" t="n">
+      <c r="J10" s="19">
         <v>16</v>
       </c>
-      <c r="K10" s="19" t="n">
+      <c r="K10" s="19">
         <v>17</v>
       </c>
-      <c r="L10" s="19" t="n">
+      <c r="L10" s="19">
         <v>21</v>
       </c>
-      <c r="M10" s="19" t="n">
+      <c r="M10" s="19">
         <v>15</v>
       </c>
-      <c r="N10" s="19" t="n">
+      <c r="N10" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Remolques</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="n">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
         <v>182</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="12">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="12">
         <v>22</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="20">
         <v>10</v>
       </c>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="20">
         <v>17</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="G11" s="20">
         <v>27</v>
       </c>
-      <c r="H11" s="20" t="n">
+      <c r="H11" s="20">
         <v>20</v>
       </c>
-      <c r="I11" s="20" t="n">
+      <c r="I11" s="20">
         <v>18</v>
       </c>
-      <c r="J11" s="20" t="n">
+      <c r="J11" s="20">
         <v>3</v>
       </c>
-      <c r="K11" s="20" t="n">
+      <c r="K11" s="20">
         <v>10</v>
       </c>
-      <c r="L11" s="20" t="n">
+      <c r="L11" s="20">
         <v>18</v>
       </c>
-      <c r="M11" s="20" t="n">
+      <c r="M11" s="20">
         <v>11</v>
       </c>
-      <c r="N11" s="20" t="n">
+      <c r="N11" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="31" t="inlineStr">
-        <is>
-          <t>Tractores</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
         <v>206</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="19">
         <v>32</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="19">
         <v>9</v>
       </c>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="19">
         <v>32</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="19">
         <v>17</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="19">
         <v>12</v>
       </c>
-      <c r="J12" s="19" t="n">
+      <c r="J12" s="19">
         <v>7</v>
       </c>
-      <c r="K12" s="19" t="n">
+      <c r="K12" s="19">
         <v>9</v>
       </c>
-      <c r="L12" s="19" t="n">
+      <c r="L12" s="19">
         <v>16</v>
       </c>
-      <c r="M12" s="19" t="n">
+      <c r="M12" s="19">
         <v>18</v>
       </c>
-      <c r="N12" s="19" t="n">
+      <c r="N12" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>Autobuses</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="n">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
         <v>47</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="20">
         <v>20</v>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="20">
         <v>3</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="20">
         <v>4</v>
       </c>
-      <c r="H13" s="20" t="n">
+      <c r="H13" s="20">
         <v>0</v>
       </c>
-      <c r="I13" s="20" t="n">
+      <c r="I13" s="20">
         <v>4</v>
       </c>
-      <c r="J13" s="20" t="n">
+      <c r="J13" s="20">
         <v>1</v>
       </c>
-      <c r="K13" s="20" t="n">
+      <c r="K13" s="20">
         <v>12</v>
       </c>
-      <c r="L13" s="20" t="n">
+      <c r="L13" s="20">
         <v>3</v>
       </c>
-      <c r="M13" s="20" t="n">
+      <c r="M13" s="20">
         <v>0</v>
       </c>
-      <c r="N13" s="20" t="n">
+      <c r="N13" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="31" t="inlineStr">
-        <is>
-          <t>Otros vehículos</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7">
         <v>124</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>15</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="19">
         <v>12</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="19">
         <v>7</v>
       </c>
-      <c r="G14" s="19" t="n">
+      <c r="G14" s="19">
         <v>10</v>
       </c>
-      <c r="H14" s="19" t="n">
+      <c r="H14" s="19">
         <v>12</v>
       </c>
-      <c r="I14" s="19" t="n">
+      <c r="I14" s="19">
         <v>13</v>
       </c>
-      <c r="J14" s="19" t="n">
+      <c r="J14" s="19">
         <v>8</v>
       </c>
-      <c r="K14" s="19" t="n">
+      <c r="K14" s="19">
         <v>14</v>
       </c>
-      <c r="L14" s="19" t="n">
+      <c r="L14" s="19">
         <v>8</v>
       </c>
-      <c r="M14" s="19" t="n">
+      <c r="M14" s="19">
         <v>6</v>
       </c>
-      <c r="N14" s="19" t="n">
+      <c r="N14" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12">
         <v>122</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="12">
         <v>7</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="12">
         <v>23</v>
       </c>
-      <c r="E15" s="20" t="n">
+      <c r="E15" s="20">
         <v>17</v>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="20">
         <v>3</v>
       </c>
-      <c r="G15" s="20" t="n">
+      <c r="G15" s="20">
         <v>5</v>
       </c>
-      <c r="H15" s="20" t="n">
+      <c r="H15" s="20">
         <v>9</v>
       </c>
-      <c r="I15" s="20" t="n">
+      <c r="I15" s="20">
         <v>17</v>
       </c>
-      <c r="J15" s="20" t="n">
+      <c r="J15" s="20">
         <v>6</v>
       </c>
-      <c r="K15" s="20" t="n">
+      <c r="K15" s="20">
         <v>13</v>
       </c>
-      <c r="L15" s="20" t="n">
+      <c r="L15" s="20">
         <v>11</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="M15" s="20">
         <v>7</v>
       </c>
-      <c r="N15" s="20" t="n">
+      <c r="N15" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="3" t="n"/>
-      <c r="S16" s="3" t="n"/>
-      <c r="T16" s="3" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
+    <row r="16" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico. Ministerio del Interior</t>
-        </is>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="63"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="1" max="9"/>
+    <col min="1" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>3. Vehículos matriculados según tipo y procedencia. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Turismos y todoterrenos</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Camiones y furgonetas</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Ciclomotores</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>Remolques</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>Autobuses, tractores y otros</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
+    <row r="3" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="n">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
         <v>17467</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>12216</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>998</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="22">
         <v>3381</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="22">
         <v>191</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="22">
         <v>182</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="22">
         <v>377</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="22">
         <v>122</v>
       </c>
-      <c r="J4" s="11" t="n"/>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="31" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7">
         <v>1339</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>865</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>222</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="7">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>138</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="7">
         <v>40</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="n"/>
+      <c r="J5" s="11"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
-        <is>
-          <t>Importación</t>
-        </is>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="12">
         <f>B7+B8</f>
-        <v/>
+        <v>15962</v>
       </c>
       <c r="C6" s="12">
-        <f>C7+C8</f>
-        <v/>
+        <f t="shared" ref="C6:I6" si="0">C7+C8</f>
+        <v>11298</v>
       </c>
       <c r="D6" s="12">
-        <f>D7+D8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>771</v>
       </c>
       <c r="E6" s="12">
-        <f>E7+E8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3346</v>
       </c>
       <c r="F6" s="12">
-        <f>F7+F8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
       <c r="G6" s="12">
-        <f>G7+G8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="H6" s="12">
-        <f>H7+H8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>332</v>
       </c>
       <c r="I6" s="12">
-        <f>I7+I8</f>
-        <v/>
-      </c>
-      <c r="J6" s="11" t="n"/>
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
-        <is>
-          <t>UE</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7">
         <v>11522</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>8723</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>598</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="7">
         <v>1755</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>94</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="7">
         <v>42</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="7">
         <v>293</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="7">
         <v>17</v>
       </c>
-      <c r="J7" s="11" t="n"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="35" t="inlineStr">
-        <is>
-          <t>No UE</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12">
         <v>4440</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="12">
         <v>2575</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>173</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>1591</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="12">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="12">
         <v>39</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="12">
         <v>4</v>
       </c>
-      <c r="J8" s="11" t="n"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="31" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
         <v>166</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="7">
         <v>101</v>
       </c>
-      <c r="J9" s="11" t="n"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="36" t="inlineStr">
-        <is>
-          <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales.</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="3" t="n"/>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
+    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico. Ministerio del Interior.</t>
-        </is>
+    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="84"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="23" t="n"/>
-      <c r="B2" s="24" t="n"/>
-      <c r="C2" s="24" t="n"/>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="25" t="n"/>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="25"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="14" t="n"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="26" t="n"/>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="26"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="13" t="n"/>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="13" t="n"/>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="13" t="n"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="13" t="n"/>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="13" t="n"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="27" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="27" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="27" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="27" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="27" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="27" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="27" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="27" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="27" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="27" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="27" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="27" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="27" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja9">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="5"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>4. Vehículos matriculados según tipo y carburante. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="28" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Turismos y todoterrenos</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Camiones y furgonetas</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Motocicletas y ciclomotores</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Autobuses, tractores 
-y otros</t>
-        </is>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
         <v>12216</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>998</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>3572</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="22">
         <v>377</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="33" t="inlineStr">
-        <is>
-          <t>Gasolina</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
         <v>8898</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>3370</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
-        <is>
-          <t>Gasoil</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12">
         <v>1930</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="12">
         <v>810</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="15">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>306</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="33" t="inlineStr">
-        <is>
-          <t>Eléctrico</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
         <v>786</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>183</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
-        <is>
-          <t>Gas Licuado de Petróleo</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
         <v>432</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="15">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="33" t="inlineStr">
-        <is>
-          <t>Gas Natural Comprimido</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="33" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
         <v>165</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="36" t="inlineStr">
-        <is>
-          <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales.</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico. Ministerio del Interior.</t>
-        </is>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" min="3" max="3"/>
-    <col width="27" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>5. Turismos y todoterrenos nuevos matriculados según marca y modelo más frecuente. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="J1" s="38" t="n"/>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="J1" s="38"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Marca y Modelo</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Matriculaciones</t>
-        </is>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
         <v>10579</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="32" t="inlineStr">
-        <is>
-          <t>Toyota Yaris</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="12">
         <v>410</v>
       </c>
-      <c r="C5" s="6" t="n"/>
+      <c r="C5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="31" t="inlineStr">
-        <is>
-          <t>MG ZS</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7">
         <v>409</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
-        <is>
-          <t>Dacia Sandero</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12">
         <v>405</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="31" t="inlineStr">
-        <is>
-          <t>Toyota Corolla</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7">
         <v>320</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>Toyota C-HR</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="n">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12">
         <v>303</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="31" t="inlineStr">
-        <is>
-          <t>Ford Puma</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
         <v>245</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Peugeot 2008</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="n">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12">
         <v>229</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="31" t="inlineStr">
-        <is>
-          <t>Kia Sportage</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7">
         <v>215</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>Peugeot 208</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="n">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="12">
         <v>192</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="31" t="inlineStr">
-        <is>
-          <t>Seat Ibiza</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>Tesla Model Y</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="12">
         <v>176</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="31" t="inlineStr">
-        <is>
-          <t>Hyundai Kona</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="7">
         <v>161</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>Renault Captur</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12">
         <v>160</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="31" t="inlineStr">
-        <is>
-          <t>Citroën C3</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7">
         <v>155</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
-        <is>
-          <t>Hyundai Tucson</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="12">
         <v>155</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="31" t="inlineStr">
-        <is>
-          <t>Volkswagen T-Roc</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
         <v>152</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
-        <is>
-          <t>Ford Kuga</t>
-        </is>
-      </c>
-      <c r="B21" s="12" t="n">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="12">
         <v>152</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="37" t="inlineStr">
-        <is>
-          <t>Seat Arona</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="7">
         <v>151</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="32" t="inlineStr">
-        <is>
-          <t>Nissan Qashqai</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="n">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
         <v>149</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="31" t="inlineStr">
-        <is>
-          <t>Volvo XC40</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="7">
         <v>140</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="32" t="inlineStr">
-        <is>
-          <t>Citroën C4</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="12">
         <v>139</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="31" t="inlineStr">
-        <is>
-          <t>Opel Corsa</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="7">
         <v>125</v>
       </c>
-      <c r="J26" s="38" t="n"/>
+      <c r="J26" s="38"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="32" t="inlineStr">
-        <is>
-          <t>Hyundai I20</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="31" t="inlineStr">
-        <is>
-          <t>Dacia Duster</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="7">
         <v>112</v>
       </c>
-      <c r="J28" s="38" t="n"/>
+      <c r="J28" s="38"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="32" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="B29" s="12">
         <f>B4-SUM(B5:B28)</f>
-        <v/>
+        <v>5624</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="36" t="inlineStr">
-        <is>
-          <t>Nota: Datos obtenidos mediante la tabulación del fichero de microdatos de la Dirección General de Tráfico. Datos provisionales.</t>
-        </is>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Dirección General de Tráfico. Ministerio del Interior. </t>
-        </is>
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="J33" s="38" t="n"/>
+    <row r="33" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="38"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="J54" s="38" t="n"/>
+    <row r="54" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="38"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sortState ref="I4:K55">
+    <sortCondition descending="1" ref="K4:K55"/>
+  </sortState>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>